--- a/file/export invoices result.xlsx
+++ b/file/export invoices result.xlsx
@@ -306,7 +306,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
@@ -341,7 +341,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>17</v>
@@ -361,7 +361,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>19</v>
@@ -396,7 +396,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>25</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>27</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>33</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>35</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>37</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>42</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>44</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>46</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>48</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>49</v>
